--- a/pred_ohlcv/54_21/2019-10-27 ETHOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ETHOS ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>40443.54009999998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>86263.19737069999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>86263.19737069999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>86263.19737069999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>86263.19737069999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>86263.19737069999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>78965.50707069998</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>78975.50707069998</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>82737.50707069998</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>80472.50717069999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-67220.84072930002</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-68030.95072930002</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 ETHOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ETHOS ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>40443.54009999998</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>86263.19737069999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>86263.19737069999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>86263.19737069999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>86263.19737069999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>86263.19737069999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>86263.19737069999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>76401.19737069999</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>78036.19737069999</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>78965.50707069998</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>78975.50707069998</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>82747.50707069998</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-67220.84072930002</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-67220.84072930002</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
